--- a/dados_loterias.xlsx
+++ b/dados_loterias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554E1416-3FFB-4D59-BEC4-4B5BF45023D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDE8603-6A0A-4844-ABE8-23457A631AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7A96F3F8-A2F3-4739-94F1-BEDD4E203DAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="85">
   <si>
     <t>França</t>
   </si>
@@ -110,9 +110,6 @@
     <t>11,12,19,28,31,39</t>
   </si>
   <si>
-    <t>11,21,33,43,49</t>
-  </si>
-  <si>
     <t>4,11,31,41,48</t>
   </si>
   <si>
@@ -192,6 +189,108 @@
   </si>
   <si>
     <t>vencedores</t>
+  </si>
+  <si>
+    <t>2025-098</t>
+  </si>
+  <si>
+    <t>2025-099</t>
+  </si>
+  <si>
+    <t>2025-100</t>
+  </si>
+  <si>
+    <t>2025-101</t>
+  </si>
+  <si>
+    <t>2025-102</t>
+  </si>
+  <si>
+    <t>2025-103</t>
+  </si>
+  <si>
+    <t>2025-104</t>
+  </si>
+  <si>
+    <t>2025-105</t>
+  </si>
+  <si>
+    <t>11,12,18,27,32,39</t>
+  </si>
+  <si>
+    <t>11,22,33,44,49</t>
+  </si>
+  <si>
+    <t>5,12,36,43,48</t>
+  </si>
+  <si>
+    <t>11,14,15,29,31,39</t>
+  </si>
+  <si>
+    <t>12,23,34,48,50</t>
+  </si>
+  <si>
+    <t>3,13,33,43,48</t>
+  </si>
+  <si>
+    <t>10,14,15,21,31,34</t>
+  </si>
+  <si>
+    <t>17,21,32,48,50</t>
+  </si>
+  <si>
+    <t>4,13,34,43,49</t>
+  </si>
+  <si>
+    <t>10,13,15,22,33,34</t>
+  </si>
+  <si>
+    <t>15,21,31,41,50</t>
+  </si>
+  <si>
+    <t>4,14,31,41,49</t>
+  </si>
+  <si>
+    <t>15,21,31,42,50</t>
+  </si>
+  <si>
+    <t>6,16,31,46,49</t>
+  </si>
+  <si>
+    <t>9,13,15,22,39,40</t>
+  </si>
+  <si>
+    <t>9,13,15,22,38,39</t>
+  </si>
+  <si>
+    <t>1,11,31,42,49</t>
+  </si>
+  <si>
+    <t>8,13,16,23,37,39</t>
+  </si>
+  <si>
+    <t>1,11,30,41,49</t>
+  </si>
+  <si>
+    <t>5,15,32,46,49</t>
+  </si>
+  <si>
+    <t>4,13,16,23,36,40</t>
+  </si>
+  <si>
+    <t>1,12,30,47,48</t>
+  </si>
+  <si>
+    <t>5,12,31,46,47</t>
+  </si>
+  <si>
+    <t>Hungria, Portugal</t>
+  </si>
+  <si>
+    <t>1,22,33,43,49</t>
+  </si>
+  <si>
+    <t>11,23,33,43,48</t>
   </si>
 </sst>
 </file>
@@ -226,12 +325,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -264,11 +369,55 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -325,44 +474,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -512,18 +623,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC92296D-4ED2-4389-BD64-45529978881D}" name="Tabela1" displayName="Tabela1" ref="A1:J26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC92296D-4ED2-4389-BD64-45529978881D}" name="Tabela1" displayName="Tabela1" ref="A1:J50" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{223A56B1-C6BC-45C5-AC51-B2A0358BD7EB}" name="data" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{D99BF735-3265-4508-A2AE-60AA924543BD}" name="sorteio" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{6F639B6D-3E02-45FA-9A03-E264438DD72F}" name="loteria" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{803DB7A8-7BF6-4F02-B721-998D0A714996}" name="numeros_sorteados" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{FDD6CC22-90CA-4273-8FCF-C4F2D526E7E9}" name="numeros_complementares" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{EDC8EA9C-ECEB-4A60-AEAC-B2F2F35A851F}" name="acumulou" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{6497669C-8A16-4658-8A48-2E4005060958}" name="premio" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{FD10A9EF-F041-4630-B7E2-BD10B629F96C}" name="jackpot" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{F3566B67-DE25-4652-9B11-1B6999BA7B97}" name="pais" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{0514152E-0D36-4359-A026-9862F9DA44E1}" name="vencedores" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{EDC8EA9C-ECEB-4A60-AEAC-B2F2F35A851F}" name="acumulou" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{6497669C-8A16-4658-8A48-2E4005060958}" name="premio" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{FD10A9EF-F041-4630-B7E2-BD10B629F96C}" name="jackpot" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F3566B67-DE25-4652-9B11-1B6999BA7B97}" name="pais" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{0514152E-0D36-4359-A026-9862F9DA44E1}" name="vencedores" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -846,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B343A89-FEBD-4FE1-BD4D-B0AA4FCF0D77}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,34 +978,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -902,7 +1013,7 @@
         <v>45966</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -934,7 +1045,7 @@
         <v>45967</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -966,7 +1077,7 @@
         <v>45968</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -998,7 +1109,7 @@
         <v>45969</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -1030,7 +1141,7 @@
         <v>45971</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1062,7 +1173,7 @@
         <v>45972</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1094,7 +1205,7 @@
         <v>45973</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -1126,7 +1237,7 @@
         <v>45974</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1158,7 +1269,7 @@
         <v>45975</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -1190,7 +1301,7 @@
         <v>45976</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1222,7 +1333,7 @@
         <v>45978</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1254,7 +1365,7 @@
         <v>45979</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -1286,7 +1397,7 @@
         <v>45980</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1304,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>7000000</v>
+        <v>7100000</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>6</v>
@@ -1318,7 +1429,7 @@
         <v>45981</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -1339,10 +1450,10 @@
         <v>10800000</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1350,7 +1461,7 @@
         <v>45982</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -1382,7 +1493,7 @@
         <v>45983</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -1414,7 +1525,7 @@
         <v>45985</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -1446,13 +1557,13 @@
         <v>45986</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E19" s="5">
         <v>6.7</v>
@@ -1478,13 +1589,13 @@
         <v>45987</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5">
         <v>12</v>
@@ -1510,7 +1621,7 @@
         <v>45988</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -1542,13 +1653,13 @@
         <v>45989</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E22" s="5">
         <v>6.7</v>
@@ -1563,7 +1674,7 @@
         <v>17000000</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J22" s="6">
         <v>1</v>
@@ -1574,13 +1685,13 @@
         <v>45990</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="5">
         <v>11</v>
@@ -1606,13 +1717,13 @@
         <v>45992</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="5">
         <v>2</v>
@@ -1638,13 +1749,13 @@
         <v>45993</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="5">
         <v>6.7</v>
@@ -1670,13 +1781,13 @@
         <v>45994</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="5">
         <v>5</v>
@@ -1695,6 +1806,774 @@
       </c>
       <c r="J26" s="6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45995</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45996</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>51000000</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45997</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="5">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1500000</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45999</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>46000</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>71000000</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>46001</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1600000</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="8">
+        <v>71000000</v>
+      </c>
+      <c r="H34" s="8">
+        <v>17000000</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>46004</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1600000</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>46005</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>46006</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>34000000</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>46008</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="5">
+        <v>11</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1100000</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>46009</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>46010</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
+        <v>51000000</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>46011</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1200000</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>46013</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="H42" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>46014</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="8">
+        <v>51000000</v>
+      </c>
+      <c r="H43" s="8">
+        <v>17000000</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>46015</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="5">
+        <v>5</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
+        <v>1400000</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>46016</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46017</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="5">
+        <v>6.12</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="8">
+        <v>17000000</v>
+      </c>
+      <c r="H46" s="8">
+        <v>17000000</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46018</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="5">
+        <v>5</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
+        <v>1600000</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>46019</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="8">
+        <v>17000000</v>
+      </c>
+      <c r="H49" s="8">
+        <v>17000000</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="5">
+        <v>5</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1600000</v>
+      </c>
+      <c r="H50" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
